--- a/backend/attendance.xlsx
+++ b/backend/attendance.xlsx
@@ -6,18 +6,17 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Musiqa o`qitish texnologiyalari" r:id="rId3" sheetId="1"/>
-    <sheet name="Inklyuziv ta’lim. Gospital peda" r:id="rId4" sheetId="2"/>
-    <sheet name="Musiqa nazariyasi" r:id="rId5" sheetId="3"/>
-    <sheet name="Musiqa o`qitish metodikasi. Mak" r:id="rId6" sheetId="4"/>
-    <sheet name="Folklor jamoalari bilan ishlash" r:id="rId7" sheetId="5"/>
-    <sheet name="Umumiy pedagogika " r:id="rId8" sheetId="6"/>
+    <sheet name="Mehnat va muhandislik psixologi" r:id="rId3" sheetId="1"/>
+    <sheet name="Pedagogik psixologiya va psixol" r:id="rId4" sheetId="2"/>
+    <sheet name="Ta'lim muassasalarida psixologi" r:id="rId5" sheetId="3"/>
+    <sheet name="Klinik psixologiya " r:id="rId6" sheetId="4"/>
+    <sheet name="Boshqaruv psixologiyasi" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="46">
   <si>
     <t>Sana</t>
   </si>
@@ -28,160 +27,133 @@
     <t>Semester/Dars turi</t>
   </si>
   <si>
-    <t>BEKMONOV B. E.</t>
-  </si>
-  <si>
-    <t>6-semestr</t>
-  </si>
-  <si>
-    <t>XUSHVAQTOV M. A.</t>
-  </si>
-  <si>
-    <t>XOLIQOV F. N.</t>
-  </si>
-  <si>
-    <t>FAYZIYEVA D. T.</t>
-  </si>
-  <si>
-    <t>RAXMONOV B. S.</t>
-  </si>
-  <si>
-    <t>JALILOV N. K.</t>
-  </si>
-  <si>
-    <t>ABOSOVA M. M.</t>
-  </si>
-  <si>
-    <t>ABASOVA N. M.</t>
-  </si>
-  <si>
-    <t>BAXTIYOROVA SH. O.</t>
-  </si>
-  <si>
-    <t>ASADOV SH. K.</t>
-  </si>
-  <si>
-    <t>FAYZULLAYEVA A. N.</t>
-  </si>
-  <si>
-    <t>YOQUBOV H. A.</t>
-  </si>
-  <si>
-    <t>TOXIRJONOV M. A.</t>
-  </si>
-  <si>
-    <t>HAYDARALIYEV M. R.</t>
-  </si>
-  <si>
-    <t>MUTALIBJONOV Y. O.</t>
-  </si>
-  <si>
-    <t>JO‘RAYEVA H. J.</t>
-  </si>
-  <si>
-    <t>PARDABOYEV O. A.</t>
-  </si>
-  <si>
-    <t>UBAYDILLOYEV SH. U.</t>
-  </si>
-  <si>
-    <t>YAXYAYEVA U. B.</t>
-  </si>
-  <si>
-    <t>TULASHOV S. SH.</t>
-  </si>
-  <si>
-    <t>RO‘ZIYEV S. F.</t>
-  </si>
-  <si>
-    <t>BABAJANOV A. T.</t>
-  </si>
-  <si>
-    <t>RAHMATOVA F. T.</t>
-  </si>
-  <si>
-    <t>MARDONOV A. F.</t>
-  </si>
-  <si>
-    <t>AXMADOV N. H.</t>
-  </si>
-  <si>
-    <t>MANSUROVA G. M.</t>
-  </si>
-  <si>
-    <t>ARTIKOVA X. R.</t>
-  </si>
-  <si>
-    <t>QAMBAROVA N. K.</t>
-  </si>
-  <si>
-    <t>Amaliy 5-para</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
+    <t>XAYRULLAYEVA M. I.</t>
+  </si>
+  <si>
+    <t>8-semestr</t>
+  </si>
+  <si>
+    <t>JO‘RAYEV J. N.</t>
+  </si>
+  <si>
+    <t>AZIMOV M. A.</t>
+  </si>
+  <si>
+    <t>G‘ULOMOVA S. R.</t>
+  </si>
+  <si>
+    <t>XOLMURODOVA D. A.</t>
+  </si>
+  <si>
+    <t>TAG‘OYEV N. A.</t>
+  </si>
+  <si>
+    <t>RAXMATOVA R. S.</t>
+  </si>
+  <si>
+    <t>QO‘ZIBOYEV O. T.</t>
+  </si>
+  <si>
+    <t>QAZOQOVA G. S.</t>
+  </si>
+  <si>
+    <t>NUTFULLOYEVA D. X.</t>
+  </si>
+  <si>
+    <t>NIZOMOVA M. M.</t>
+  </si>
+  <si>
+    <t>NIYOZOVA G. SH.</t>
+  </si>
+  <si>
+    <t>NAIMOV N. N.</t>
+  </si>
+  <si>
+    <t>KENJAYEVA F. F.</t>
+  </si>
+  <si>
+    <t>HIKMATOVA Z. B.</t>
+  </si>
+  <si>
+    <t>HALIMOVA M. R.</t>
+  </si>
+  <si>
+    <t>HALIMOV A. A.</t>
+  </si>
+  <si>
+    <t>AVAZXONOV SH. K.</t>
+  </si>
+  <si>
+    <t>AMRILLOYEV M. M.</t>
+  </si>
+  <si>
+    <t>AKRAMOVA F. F.</t>
+  </si>
+  <si>
+    <t>AKBAROV M. M.</t>
+  </si>
+  <si>
+    <t>NIZOMOVA SH. I.</t>
+  </si>
+  <si>
+    <t>Seminar 4-para</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>Ma’ruza 5-para</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
   </si>
   <si>
     <t>NB</t>
   </si>
   <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
     <t>Ma’ruza 4-para</t>
   </si>
   <si>
     <t>2025-04-10</t>
   </si>
   <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
     <t>2025-04-03</t>
   </si>
   <si>
-    <t>Amaliy 6-para</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
     <t>2025-04-05</t>
   </si>
   <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>Laboratoriya 4-para</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
     <t>2025-04-16</t>
   </si>
   <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>Seminar 5-para</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
     <t>2025-04-08</t>
   </si>
   <si>
-    <t>2025-04-09</t>
+    <t>2025-04-04</t>
   </si>
   <si>
     <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>Ma’ruza 5-para</t>
-  </si>
-  <si>
-    <t>Laboratoriya 5-para</t>
   </si>
 </sst>
 </file>
@@ -226,7 +198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -237,16 +209,31 @@
         <v>0</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="I1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>38</v>
+      <c r="L1" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -257,16 +244,31 @@
         <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -279,9 +281,6 @@
       <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
@@ -293,9 +292,6 @@
       <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
@@ -307,6 +303,15 @@
       <c r="C5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="E5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
@@ -318,6 +323,9 @@
       <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="J6" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
@@ -351,12 +359,6 @@
       <c r="C9" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
@@ -368,12 +370,6 @@
       <c r="C10" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
@@ -385,9 +381,6 @@
       <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
@@ -399,9 +392,6 @@
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
@@ -413,15 +403,6 @@
       <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
@@ -433,9 +414,6 @@
       <c r="C14" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G14" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
@@ -447,8 +425,8 @@
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F15" t="s" s="0">
-        <v>34</v>
+      <c r="J15" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -461,12 +439,6 @@
       <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
@@ -478,9 +450,6 @@
       <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F17" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
@@ -503,12 +472,6 @@
       <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
@@ -520,12 +483,6 @@
       <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F20" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
@@ -537,9 +494,6 @@
       <c r="C21" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G21" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
@@ -551,9 +505,6 @@
       <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G22" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
@@ -575,81 +526,6 @@
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -670,16 +546,13 @@
         <v>0</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -690,16 +563,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -712,12 +582,6 @@
       <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
@@ -730,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -754,6 +618,9 @@
       <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
@@ -766,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -812,6 +679,9 @@
       <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F11" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
@@ -823,6 +693,9 @@
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F12" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
@@ -834,12 +707,6 @@
       <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
@@ -862,6 +729,9 @@
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F15" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
@@ -873,9 +743,6 @@
       <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
@@ -909,9 +776,6 @@
       <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F19" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
@@ -923,9 +787,6 @@
       <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F20" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
@@ -959,9 +820,6 @@
       <c r="C23" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F23" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
@@ -972,87 +830,6 @@
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +839,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1073,28 +850,31 @@
         <v>0</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="H1" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="K1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s" s="0">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -1108,25 +888,28 @@
         <v>39</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="H2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1139,9 +922,6 @@
       <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="I3" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
@@ -1153,18 +933,6 @@
       <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
@@ -1187,6 +955,15 @@
       <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="J6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
@@ -1220,6 +997,9 @@
       <c r="C9" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F9" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
@@ -1231,6 +1011,9 @@
       <c r="C10" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F10" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
@@ -1242,9 +1025,6 @@
       <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J11" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
@@ -1256,6 +1036,9 @@
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F12" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
@@ -1267,15 +1050,6 @@
       <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
@@ -1298,14 +1072,17 @@
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H15" t="s" s="0">
-        <v>34</v>
+      <c r="I15" t="s" s="0">
+        <v>30</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -1318,9 +1095,6 @@
       <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="I16" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
@@ -1332,9 +1106,6 @@
       <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J17" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
@@ -1346,6 +1117,9 @@
       <c r="C18" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="L18" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
@@ -1357,14 +1131,8 @@
       <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J19" t="s" s="0">
-        <v>34</v>
+      <c r="F19" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -1377,8 +1145,8 @@
       <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="I20" t="s" s="0">
-        <v>34</v>
+      <c r="L20" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -1391,9 +1159,6 @@
       <c r="C21" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="K21" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
@@ -1405,8 +1170,11 @@
       <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J22" t="s" s="0">
-        <v>34</v>
+      <c r="F22" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -1419,9 +1187,6 @@
       <c r="C23" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J23" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
@@ -1432,93 +1197,6 @@
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J26" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I30" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J30" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K30" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1539,16 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -1559,16 +1234,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1581,9 +1253,6 @@
       <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
@@ -1596,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1620,6 +1289,9 @@
       <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
@@ -1631,6 +1303,9 @@
       <c r="C7" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F7" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
@@ -1675,6 +1350,9 @@
       <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F11" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
@@ -1686,6 +1364,9 @@
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F12" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
@@ -1697,9 +1378,6 @@
       <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F13" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
@@ -1722,6 +1400,9 @@
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F15" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
@@ -1733,9 +1414,6 @@
       <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
@@ -1769,9 +1447,6 @@
       <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F19" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
@@ -1826,78 +1501,6 @@
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1510,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1918,28 +1521,22 @@
         <v>0</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="0">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -1950,28 +1547,22 @@
         <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -1984,12 +1575,6 @@
       <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
@@ -2001,15 +1586,6 @@
       <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
@@ -2032,6 +1608,12 @@
       <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
@@ -2043,6 +1625,12 @@
       <c r="C7" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="H7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
@@ -2065,8 +1653,8 @@
       <c r="C9" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="I9" t="s" s="0">
-        <v>34</v>
+      <c r="E9" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -2079,9 +1667,6 @@
       <c r="C10" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
@@ -2093,11 +1678,8 @@
       <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K11" t="s" s="0">
-        <v>34</v>
+      <c r="I11" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -2110,11 +1692,8 @@
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K12" t="s" s="0">
-        <v>34</v>
+      <c r="E12" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -2127,21 +1706,6 @@
       <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K13" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
@@ -2153,12 +1717,6 @@
       <c r="C14" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K14" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
@@ -2170,6 +1728,15 @@
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="G15" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
@@ -2181,18 +1748,6 @@
       <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J16" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
@@ -2226,18 +1781,6 @@
       <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K19" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
@@ -2249,17 +1792,11 @@
       <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G20" t="s" s="0">
-        <v>34</v>
-      </c>
       <c r="H20" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K20" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -2272,12 +1809,6 @@
       <c r="C21" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J21" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
@@ -2289,11 +1820,8 @@
       <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J22" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K22" t="s" s="0">
-        <v>34</v>
+      <c r="E22" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -2317,531 +1845,8 @@
       <c r="C24" t="s" s="0">
         <v>4</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="I29" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="H30" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I30" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J30" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K30" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s" s="0">
-        <v>34</v>
+      <c r="I24" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/backend/attendance.xlsx
+++ b/backend/attendance.xlsx
@@ -6,17 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Mehnat va muhandislik psixologi" r:id="rId3" sheetId="1"/>
-    <sheet name="Pedagogik psixologiya va psixol" r:id="rId4" sheetId="2"/>
-    <sheet name="Ta'lim muassasalarida psixologi" r:id="rId5" sheetId="3"/>
-    <sheet name="Klinik psixologiya " r:id="rId6" sheetId="4"/>
-    <sheet name="Boshqaruv psixologiyasi" r:id="rId7" sheetId="5"/>
+    <sheet name="Tasviriy faoliyatga o`rgatish m" r:id="rId3" sheetId="1"/>
+    <sheet name="O'zbekistonning eng yangi tarix" r:id="rId4" sheetId="2"/>
+    <sheet name="Bolalar psixologiyasi va psixod" r:id="rId5" sheetId="3"/>
+    <sheet name="Mediasavodxonlik va axborot mad" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="60">
   <si>
     <t>Sana</t>
   </si>
@@ -27,133 +26,175 @@
     <t>Semester/Dars turi</t>
   </si>
   <si>
-    <t>XAYRULLAYEVA M. I.</t>
-  </si>
-  <si>
-    <t>8-semestr</t>
-  </si>
-  <si>
-    <t>JO‘RAYEV J. N.</t>
-  </si>
-  <si>
-    <t>AZIMOV M. A.</t>
-  </si>
-  <si>
-    <t>G‘ULOMOVA S. R.</t>
-  </si>
-  <si>
-    <t>XOLMURODOVA D. A.</t>
-  </si>
-  <si>
-    <t>TAG‘OYEV N. A.</t>
-  </si>
-  <si>
-    <t>RAXMATOVA R. S.</t>
-  </si>
-  <si>
-    <t>QO‘ZIBOYEV O. T.</t>
-  </si>
-  <si>
-    <t>QAZOQOVA G. S.</t>
-  </si>
-  <si>
-    <t>NUTFULLOYEVA D. X.</t>
-  </si>
-  <si>
-    <t>NIZOMOVA M. M.</t>
-  </si>
-  <si>
-    <t>NIYOZOVA G. SH.</t>
-  </si>
-  <si>
-    <t>NAIMOV N. N.</t>
-  </si>
-  <si>
-    <t>KENJAYEVA F. F.</t>
-  </si>
-  <si>
-    <t>HIKMATOVA Z. B.</t>
-  </si>
-  <si>
-    <t>HALIMOVA M. R.</t>
-  </si>
-  <si>
-    <t>HALIMOV A. A.</t>
-  </si>
-  <si>
-    <t>AVAZXONOV SH. K.</t>
-  </si>
-  <si>
-    <t>AMRILLOYEV M. M.</t>
-  </si>
-  <si>
-    <t>AKRAMOVA F. F.</t>
-  </si>
-  <si>
-    <t>AKBAROV M. M.</t>
-  </si>
-  <si>
-    <t>NIZOMOVA SH. I.</t>
+    <t>KENJAYEVA SH. A.</t>
+  </si>
+  <si>
+    <t>2-semestr</t>
+  </si>
+  <si>
+    <t>YO‘LDOSHEVA N. Y.</t>
+  </si>
+  <si>
+    <t>NARZULLOYEVA M. U.</t>
+  </si>
+  <si>
+    <t>XOLMUROTOVA M. B.</t>
+  </si>
+  <si>
+    <t>ARIPOVA D. A.</t>
+  </si>
+  <si>
+    <t>YERGASHEVA S. J.</t>
+  </si>
+  <si>
+    <t>BAFOYEVA F. A.</t>
+  </si>
+  <si>
+    <t>IBROHIMOVA B. I.</t>
+  </si>
+  <si>
+    <t>FARMONOVA L. U.</t>
+  </si>
+  <si>
+    <t>OLIMOVA G. A.</t>
+  </si>
+  <si>
+    <t>JAMOLOVA H. J.</t>
+  </si>
+  <si>
+    <t>ORIPOVA M. I.</t>
+  </si>
+  <si>
+    <t>ISOMOVA M. R.</t>
+  </si>
+  <si>
+    <t>QAHOROVA D. U.</t>
+  </si>
+  <si>
+    <t>UMEDOVA N. Y.</t>
+  </si>
+  <si>
+    <t>PULOTOVA M. A.</t>
+  </si>
+  <si>
+    <t>XOLIQOVA G. A.</t>
+  </si>
+  <si>
+    <t>HAMZAYEVA CH. F.</t>
+  </si>
+  <si>
+    <t>HAKIMOVA Z. Z.</t>
+  </si>
+  <si>
+    <t>SAYFULLOYEVA M. H.</t>
+  </si>
+  <si>
+    <t>MARDONOVA SH. U.</t>
+  </si>
+  <si>
+    <t>ISOQULOVA R. B.</t>
+  </si>
+  <si>
+    <t>XUDOYBERDIYEVA N. N.</t>
+  </si>
+  <si>
+    <t>MAHMUDOVA S. H.</t>
+  </si>
+  <si>
+    <t>USANOVA G. Y.</t>
+  </si>
+  <si>
+    <t>KUCHIMOVA S. A.</t>
+  </si>
+  <si>
+    <t>DILMURODOVA R. SH.</t>
+  </si>
+  <si>
+    <t>BARAKAYEVA F. H.</t>
+  </si>
+  <si>
+    <t>ASHUROVA M. A.</t>
+  </si>
+  <si>
+    <t>O‘KTAMOVA S. R.</t>
+  </si>
+  <si>
+    <t>Amaliy 5-para</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Ma’ruza 5-para</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>Ma’ruza 4-para</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
   </si>
   <si>
     <t>Seminar 4-para</t>
   </si>
   <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>Ma’ruza 5-para</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>Ma’ruza 4-para</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-03-14</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
   </si>
   <si>
     <t>Seminar 5-para</t>
   </si>
   <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
   </si>
 </sst>
 </file>
@@ -198,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -209,31 +250,40 @@
         <v>0</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -244,31 +294,40 @@
         <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -292,6 +351,15 @@
       <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="M4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
@@ -303,15 +371,6 @@
       <c r="C5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>30</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
@@ -323,9 +382,6 @@
       <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J6" t="s" s="0">
-        <v>30</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
@@ -337,6 +393,9 @@
       <c r="C7" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="M7" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
@@ -359,6 +418,39 @@
       <c r="C9" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="D9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
@@ -381,6 +473,9 @@
       <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="J11" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
@@ -392,6 +487,24 @@
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="J12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="N12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O12" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
@@ -403,6 +516,15 @@
       <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="G13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
@@ -425,9 +547,6 @@
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J15" t="s" s="0">
-        <v>30</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
@@ -439,6 +558,12 @@
       <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="N16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
@@ -450,6 +575,9 @@
       <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="M17" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
@@ -461,6 +589,12 @@
       <c r="C18" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="J18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
@@ -472,6 +606,42 @@
       <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="D19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
@@ -483,6 +653,39 @@
       <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="D20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="N20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O20" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
@@ -516,6 +719,9 @@
       <c r="C23" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="J23" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
@@ -526,6 +732,136 @@
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M29" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="N32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O32" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +871,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,13 +882,34 @@
         <v>0</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -563,13 +920,34 @@
         <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -593,8 +971,8 @@
       <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>30</v>
+      <c r="M4" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -618,9 +996,6 @@
       <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>30</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
@@ -632,8 +1007,8 @@
       <c r="C7" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>30</v>
+      <c r="M7" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -657,6 +1032,30 @@
       <c r="C9" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="D9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
@@ -679,9 +1078,6 @@
       <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>30</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
@@ -693,8 +1089,17 @@
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F12" t="s" s="0">
-        <v>30</v>
+      <c r="I12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -729,8 +1134,8 @@
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F15" t="s" s="0">
-        <v>30</v>
+      <c r="M15" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -743,6 +1148,9 @@
       <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="M16" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
@@ -754,6 +1162,9 @@
       <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="L17" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
@@ -776,6 +1187,30 @@
       <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="D19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
@@ -787,6 +1222,30 @@
       <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="D20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
@@ -830,6 +1289,118 @@
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -850,31 +1421,28 @@
         <v>0</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s" s="0">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -885,31 +1453,28 @@
         <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -933,6 +1498,9 @@
       <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="K4" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
@@ -955,15 +1523,6 @@
       <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>30</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
@@ -997,8 +1556,26 @@
       <c r="C9" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="E9" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1011,9 +1588,6 @@
       <c r="C10" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>30</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
@@ -1036,8 +1610,17 @@
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F12" t="s" s="0">
-        <v>30</v>
+      <c r="H12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -1072,18 +1655,6 @@
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="I15" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="J15" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="K15" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>30</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
@@ -1095,6 +1666,9 @@
       <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="H16" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
@@ -1106,6 +1680,9 @@
       <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="J17" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
@@ -1117,9 +1694,6 @@
       <c r="C18" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L18" t="s" s="0">
-        <v>30</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
@@ -1131,8 +1705,26 @@
       <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="E19" t="s" s="0">
+        <v>36</v>
+      </c>
       <c r="F19" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -1145,8 +1737,26 @@
       <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L20" t="s" s="0">
-        <v>30</v>
+      <c r="E20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -1170,11 +1780,8 @@
       <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F22" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="K22" t="s" s="0">
-        <v>30</v>
+      <c r="G22" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -1197,6 +1804,121 @@
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1217,13 +1939,34 @@
         <v>0</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -1234,13 +1977,34 @@
         <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -1264,8 +2028,11 @@
       <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>30</v>
+      <c r="L4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1289,9 +2056,6 @@
       <c r="C6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>30</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
@@ -1303,8 +2067,8 @@
       <c r="C7" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>30</v>
+      <c r="M7" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1328,6 +2092,30 @@
       <c r="C9" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="D9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
@@ -1350,8 +2138,8 @@
       <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>30</v>
+      <c r="I11" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -1364,8 +2152,11 @@
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F12" t="s" s="0">
-        <v>30</v>
+      <c r="H12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -1378,6 +2169,9 @@
       <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F13" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
@@ -1400,8 +2194,8 @@
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F15" t="s" s="0">
-        <v>30</v>
+      <c r="M15" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -1414,6 +2208,9 @@
       <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="M16" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
@@ -1425,6 +2222,9 @@
       <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="L17" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
@@ -1436,6 +2236,9 @@
       <c r="C18" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="I18" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
@@ -1447,6 +2250,33 @@
       <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="D19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
@@ -1458,6 +2288,30 @@
       <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="D20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
@@ -1491,6 +2345,12 @@
       <c r="C23" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="H23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
@@ -1503,350 +2363,128 @@
         <v>4</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s" s="0">
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E1" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s" s="0">
+      <c r="C26" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="I20" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="I24" t="s" s="0">
-        <v>30</v>
+      <c r="C31" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
